--- a/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.119818977415325</v>
+        <v>1.38880543727883</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.666744282314874</v>
+        <v>2.329439812801262</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-23.79075290184728</v>
+        <v>-23.39196898913411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.57793886926575</v>
+        <v>12.0201891916421</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>14.18313060748022</v>
+        <v>13.64847436164756</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-33.57706778332886</v>
+        <v>-33.62128168185847</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.50914692430454</v>
+        <v>10.4323283125069</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>11.75872501837033</v>
+        <v>11.39310153688522</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-26.51859126420317</v>
+        <v>-26.39830043712703</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.74631849039936</v>
+        <v>20.03394629161986</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.2379809176808</v>
+        <v>22.28274620241053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.93593348888832</v>
+        <v>-10.42277370481406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30.08544618841951</v>
+        <v>30.06813224529799</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>34.04452770154782</v>
+        <v>34.08158277681378</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-18.2857838866937</v>
+        <v>-18.49902122459133</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>24.06934389389238</v>
+        <v>24.73863769118642</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.568980292915</v>
+        <v>25.79710851177089</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-16.11760467309811</v>
+        <v>-16.4164672998975</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04078919678522385</v>
+        <v>0.0616181934869978</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1089329261651062</v>
+        <v>0.1091547042347817</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9412056230506722</v>
+        <v>-0.930663459482846</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2779518374894703</v>
+        <v>0.3130976786747474</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3601267388811207</v>
+        <v>0.3551056911240945</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8731832365704656</v>
+        <v>-0.8704870297362798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.336555775177101</v>
+        <v>0.3357885386641265</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.387428698525824</v>
+        <v>0.3779058717699914</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8761827863022673</v>
+        <v>-0.8756485839671488</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.240768564867424</v>
+        <v>1.358135192656768</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.421857823136111</v>
+        <v>1.464135740935954</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.658280700604595</v>
+        <v>-0.6128337931309785</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.071269313840289</v>
+        <v>1.064813592196126</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.198280765097087</v>
+        <v>1.226340978432995</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6249707520573616</v>
+        <v>-0.6278226657776682</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.03625571885994</v>
+        <v>1.034055892952684</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.140666712667368</v>
+        <v>1.101640345002691</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.6787145198680025</v>
+        <v>-0.6971349379104423</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>10.33956402607832</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-56.67121599702445</v>
+        <v>-56.67121599702446</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>13.06525986772385</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.217250328049361</v>
+        <v>1.95549933264845</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.215891529338439</v>
+        <v>8.649821536980212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-55.19942502337896</v>
+        <v>-54.99704701276673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.63796122780623</v>
+        <v>10.585268762353</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.900445862422254</v>
+        <v>4.775064518795279</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-62.20115418675442</v>
+        <v>-62.75236900405887</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.227626909813955</v>
+        <v>8.475253485047416</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.108368636119613</v>
+        <v>8.542744215264849</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-57.90096923751594</v>
+        <v>-57.81293587817953</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.6100688282798</v>
+        <v>17.41253785673763</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.74376064919285</v>
+        <v>24.44192334906525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-42.11101018897259</v>
+        <v>-41.92092997210633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.8109230400144</v>
+        <v>20.69760330805651</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.54009316763922</v>
+        <v>16.23202630792001</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-50.51047171822815</v>
+        <v>-50.84676551088849</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.52448757879056</v>
+        <v>17.53732979161993</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.86555234384018</v>
+        <v>17.6316030690853</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-49.46398411570843</v>
+        <v>-49.37260824223478</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.13508362347153</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.7403941969030378</v>
+        <v>-0.7403941969030379</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1900837430036803</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.01862949767396873</v>
+        <v>0.02963529110155337</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1321634769562138</v>
+        <v>0.1398729351239982</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8861819177965262</v>
+        <v>-0.8850265974381868</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1338505389546443</v>
+        <v>0.1327756494495796</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06219509343722194</v>
+        <v>0.05718453491867807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7890055349772811</v>
+        <v>-0.7933434809747746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1141619459081904</v>
+        <v>0.1194497623970221</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1130157669378903</v>
+        <v>0.1207619758058743</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8139837874005017</v>
+        <v>-0.8192200596105584</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3244510280413767</v>
+        <v>0.3198643601921825</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4437429414143286</v>
+        <v>0.4584281224602161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.7653487948911932</v>
+        <v>-0.7650436786110218</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2851847877573596</v>
+        <v>0.2879333699644272</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2158566002219673</v>
+        <v>0.223513041869027</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.6857286832276123</v>
+        <v>-0.6907769699173609</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2653965147341247</v>
+        <v>0.2657118317463989</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2742631556259981</v>
+        <v>0.2690620659851508</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.7376351339377096</v>
+        <v>-0.7388361804694926</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.426153415166873</v>
+        <v>8.686912113780053</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.249175906536521</v>
+        <v>5.847019832364972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-49.01448920179902</v>
+        <v>-48.20561580399379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21.18105841738628</v>
+        <v>21.34596882242893</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.790416519999176</v>
+        <v>5.784595965950157</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-51.8081749677585</v>
+        <v>-51.95300656573676</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.0896014388354</v>
+        <v>16.34229269658018</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.07124031551846</v>
+        <v>6.974822002619062</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-48.79026358546311</v>
+        <v>-49.28365115781539</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.77197417748938</v>
+        <v>20.0565435168081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.83017385381812</v>
+        <v>17.55187932233834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-37.92960175551157</v>
+        <v>-38.08970440619174</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29.79328850081512</v>
+        <v>30.16215857415908</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.83257765038772</v>
+        <v>15.59857648789669</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-42.40648148975328</v>
+        <v>-42.24923569438997</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>23.19753214254312</v>
+        <v>23.55442998441114</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.03368721578913</v>
+        <v>14.91600745253633</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-41.82367793041414</v>
+        <v>-42.04210807578841</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1685612826775734</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.6985245207816324</v>
+        <v>-0.6985245207816325</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1342012750166638</v>
+        <v>0.1351352159956164</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.08339073328314228</v>
+        <v>0.09057966930684186</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7736342788850656</v>
+        <v>-0.7676204819703609</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2898731789963025</v>
+        <v>0.29512186826426</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06666328380606422</v>
+        <v>0.07941294492112472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7228102330158667</v>
+        <v>-0.7242333715798192</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2404156242487402</v>
+        <v>0.2405847354738908</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1037946674739811</v>
+        <v>0.1053462797236025</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7327562039962912</v>
+        <v>-0.7362858365870775</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.351912657026699</v>
+        <v>0.3533643902395802</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3139786874013209</v>
+        <v>0.3056421633254754</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.6580747392983941</v>
+        <v>-0.6570654575296965</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4533437322091127</v>
+        <v>0.4616236986394355</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2237320026277819</v>
+        <v>0.2361433217242309</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.6326341558130026</v>
+        <v>-0.6327360398670625</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3692120964237728</v>
+        <v>0.3762665801783049</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2393025550500376</v>
+        <v>0.2397263976555598</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.6627939328558123</v>
+        <v>-0.6631031164867764</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>9.462227671900452</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-34.53609812283348</v>
+        <v>-34.53609812283347</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.37321167216552</v>
+        <v>15.90439827117524</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.193113262335897</v>
+        <v>2.097055396035034</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-37.40981662186037</v>
+        <v>-36.56559878313873</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24.66103566822948</v>
+        <v>24.4171276636011</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4540735544390278</v>
+        <v>-0.6889422929573954</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-46.43001865199937</v>
+        <v>-46.52680604749651</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>21.84850938710148</v>
+        <v>22.19757722598647</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.819642471729102</v>
+        <v>3.506768489297755</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-38.84337003308767</v>
+        <v>-38.99347668858124</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>31.42567774334224</v>
+        <v>31.60526607418157</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.86230278932075</v>
+        <v>18.24378989323083</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-23.53178101188557</v>
+        <v>-23.77527648599618</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40.44411414916794</v>
+        <v>39.57652558277135</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.49271167441813</v>
+        <v>16.1806163177487</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-33.29163986235204</v>
+        <v>-33.35110752822695</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>33.25801505555695</v>
+        <v>33.07209453751811</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.23898253844462</v>
+        <v>15.2924071009102</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-29.16672128918683</v>
+        <v>-29.66511892200108</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.2018823766650679</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.7368486377135829</v>
+        <v>-0.7368486377135828</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3276128512544964</v>
+        <v>0.3508906131877775</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04800829963367307</v>
+        <v>0.04620624148923664</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.79830849804204</v>
+        <v>-0.7993198429784064</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4250771010452919</v>
+        <v>0.4134775403246188</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.005273014953185237</v>
+        <v>-0.01332776952612653</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.786945279410905</v>
+        <v>-0.7907034975815213</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4393311057204405</v>
+        <v>0.4442030702332769</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07721405283735218</v>
+        <v>0.07013617692109725</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7753312197854506</v>
+        <v>-0.7750072252014397</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8701542021980071</v>
+        <v>0.8860873753163654</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4984731408086329</v>
+        <v>0.4960632737237693</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.6574449393468474</v>
+        <v>-0.6588825440785651</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8594409621357521</v>
+        <v>0.818576388195127</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3673665878491899</v>
+        <v>0.3288598256177322</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.6876781205099283</v>
+        <v>-0.6904099990883363</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7773681275261299</v>
+        <v>0.7656009210827681</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3520363361595688</v>
+        <v>0.3484820129070298</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.6872902180740624</v>
+        <v>-0.6931938290863917</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.29690441843692</v>
+        <v>14.65439911438716</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.40409283209301</v>
+        <v>1.641502210323297</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-23.32415575270835</v>
+        <v>-23.11548469374676</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8295594173990138</v>
+        <v>0.5364109991583486</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-14.18125830335008</v>
+        <v>-14.48979851181792</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-33.34090046680237</v>
+        <v>-33.95032967176246</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.081315028336174</v>
+        <v>8.317809619218698</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.535777962608217</v>
+        <v>-6.794653979188336</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-28.95260205726332</v>
+        <v>-28.64441547465261</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>36.66123445267977</v>
+        <v>38.03488209142948</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.7949235489173</v>
+        <v>24.86864659696483</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.619696895152449</v>
+        <v>-6.973710224334506</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.88546221146309</v>
+        <v>19.73933555041228</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.166590168707286</v>
+        <v>4.673767465972975</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-20.19665665934228</v>
+        <v>-19.66337849493867</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>23.35010963920358</v>
+        <v>23.31598813063606</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.449769866891859</v>
+        <v>8.514257686859825</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-18.15355099147475</v>
+        <v>-17.75121205383459</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4526634571762912</v>
+        <v>0.5089948550794565</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.0564462688407629</v>
+        <v>0.05375461179209141</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8332529744530338</v>
+        <v>-0.8279802161018673</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02013936805252551</v>
+        <v>0.01662912207733757</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3675001862709421</v>
+        <v>-0.3658911847454212</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8247857952690983</v>
+        <v>-0.8255934116080633</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2442090185510029</v>
+        <v>0.2382092194764006</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1637189948170639</v>
+        <v>-0.196278789259509</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8118084448256676</v>
+        <v>-0.8201990892454786</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.440153421966385</v>
+        <v>2.732970096629458</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.837797752445931</v>
+        <v>1.812924063014484</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.5075332093787268</v>
+        <v>-0.4976255558460181</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6549751728358564</v>
+        <v>0.6799186549635865</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1686283420427351</v>
+        <v>0.1546746964690242</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6938065694824264</v>
+        <v>-0.6842744749796691</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9072480201363933</v>
+        <v>0.8935851350825562</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3671312418085141</v>
+        <v>0.3297709614105315</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.687679333267865</v>
+        <v>-0.6959534983208131</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.8016517958778335</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-6.927830722417175</v>
+        <v>-6.927830722417176</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.987017523205006</v>
@@ -1734,7 +1734,7 @@
         <v>0.4972869826412818</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-4.772230523095959</v>
+        <v>-4.772230523095958</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.04127854725547726</v>
+        <v>0.583420060662173</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.982004797388089</v>
+        <v>-2.1885802852017</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.617991195205359</v>
+        <v>-5.246419142779976</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.154573333961668</v>
+        <v>-5.16156850544429</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.831002153860268</v>
+        <v>-6.129698771154362</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.93817037162308</v>
+        <v>-11.25474278128509</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.493663846918207</v>
+        <v>-1.411434674751616</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.99041852678109</v>
+        <v>-2.675113940216125</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.311658403645731</v>
+        <v>-7.509836602267203</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.596496423036669</v>
+        <v>9.715001757649365</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.016698372918257</v>
+        <v>6.107141993061007</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.8068888998672683</v>
+        <v>0.9814113175043268</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.376829136726009</v>
+        <v>5.123269112766347</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.545068650068735</v>
+        <v>4.7067368372384</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-3.168528421851907</v>
+        <v>-3.109085034831022</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.565965300421493</v>
+        <v>5.097850735502899</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.972375179868799</v>
+        <v>3.72708500220357</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.301595016224959</v>
+        <v>-2.32084448522464</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.05722710332388766</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4945534789553304</v>
+        <v>-0.4945534789553305</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1922777739083477</v>
@@ -1839,7 +1839,7 @@
         <v>0.04812098177253955</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.4617945492892816</v>
+        <v>-0.4617945492892815</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0508245002001062</v>
+        <v>0.02901137326777938</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2710965434861904</v>
+        <v>-0.2761731634847936</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6566448775545718</v>
+        <v>-0.6384136427067806</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3138466879590501</v>
+        <v>-0.3168522834642795</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3518237698334614</v>
+        <v>-0.3807367715039406</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6397564725049683</v>
+        <v>-0.6541232081296354</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1167857634546275</v>
+        <v>-0.1147665687296258</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2474039263010774</v>
+        <v>-0.2310125678427762</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6024953112043367</v>
+        <v>-0.6063193068500371</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.004522548633373</v>
+        <v>2.199144988608626</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.388887062259571</v>
+        <v>1.432499529935774</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2482857266044143</v>
+        <v>0.3077825984193865</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4516456732035499</v>
+        <v>0.4438508394195517</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3997669720304117</v>
+        <v>0.3966281939195314</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2656705325665896</v>
+        <v>-0.2611609791548192</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6597983901757263</v>
+        <v>0.5834465115397066</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4540529961985796</v>
+        <v>0.4016477066188222</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2632378762690752</v>
+        <v>-0.2676987612900241</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-2.875446857970906</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-3.567258912855868</v>
+        <v>-3.56725891285587</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.275721136936972</v>
@@ -1939,7 +1939,7 @@
         <v>4.519257418647721</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.419567148199854</v>
+        <v>-1.419567148199856</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.18734233906525</v>
@@ -1948,7 +1948,7 @@
         <v>1.671838070882278</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-2.253401599698297</v>
+        <v>-2.253401599698299</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.469146694845914</v>
+        <v>-7.688750691827698</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.914917823309193</v>
+        <v>-8.342974755648475</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.795605027890566</v>
+        <v>-8.254810470302514</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.124988967541051</v>
+        <v>-1.694774906089936</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4796861224607047</v>
+        <v>-0.6029895692197316</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.20098215122314</v>
+        <v>-5.545292804662761</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.436576877167195</v>
+        <v>-2.64702055896117</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.90606973105044</v>
+        <v>-1.83377632323457</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.370513246895375</v>
+        <v>-5.536263865915481</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.911189653532551</v>
+        <v>4.047812254790122</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.231586420589287</v>
+        <v>1.632597759041884</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.8241218295808804</v>
+        <v>0.5422379734794085</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.391261322969088</v>
+        <v>7.620918009093272</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.439201655673491</v>
+        <v>9.553493488251895</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.957431840309546</v>
+        <v>1.81191112961916</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.46095880012013</v>
+        <v>4.97742827329941</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.238906873970826</v>
+        <v>5.578358199109515</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.540971177572505</v>
+        <v>0.2466895453474956</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.2781052683828481</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3450154172040434</v>
+        <v>-0.3450154172040436</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.3839079748030833</v>
@@ -2044,7 +2044,7 @@
         <v>0.529647943362231</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1663704345333839</v>
+        <v>-0.1663704345333841</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.128640235750669</v>
@@ -2053,7 +2053,7 @@
         <v>0.1811319587445631</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.2441402984537161</v>
+        <v>-0.2441402984537163</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6004060139992837</v>
+        <v>-0.5918720472067718</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5976858043629831</v>
+        <v>-0.6221180797475663</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6430282826546297</v>
+        <v>-0.6189644479005403</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1103881658404051</v>
+        <v>-0.1506161416097839</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.05785738813676825</v>
+        <v>-0.08424376217034484</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4610030945969871</v>
+        <v>-0.4764633702055845</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2212011994883344</v>
+        <v>-0.2364366446546517</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1715981786974779</v>
+        <v>-0.1721586770705046</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4654611174420482</v>
+        <v>-0.4867951124847158</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4882198883901186</v>
+        <v>0.5661846283833452</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3422752647216065</v>
+        <v>0.2643964486679923</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.101729133968697</v>
+        <v>0.1235470982464008</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.390706340135426</v>
+        <v>1.233722951643848</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.476755030455343</v>
+        <v>1.500036570177076</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3581369422195015</v>
+        <v>0.3041324371095027</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6180181421613177</v>
+        <v>0.656223448589968</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7096785889319012</v>
+        <v>0.7571121986260327</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.06741986507289807</v>
+        <v>0.04108863193903462</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>5.258680083471868</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-33.14132980865759</v>
+        <v>-33.1413298086576</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>14.07607365812965</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>8.988706025568607</v>
+        <v>9.508063018258268</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.908413989536286</v>
+        <v>4.18461265446636</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-30.66653645947948</v>
+        <v>-30.56730287989927</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>12.72571583392202</v>
+        <v>12.61841879608239</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.232122968484953</v>
+        <v>2.321518238752105</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-35.37483780558826</v>
+        <v>-35.43268219202842</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>12.14137655009234</v>
+        <v>11.94439482415297</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>3.983963245259301</v>
+        <v>4.188436797923429</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-32.66875076008438</v>
+        <v>-32.75163548037531</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>15.59320481699913</v>
+        <v>15.89885074339545</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>10.46965192889921</v>
+        <v>10.79508107974475</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-25.55459814178755</v>
+        <v>-25.70439220908034</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>18.56665961419815</v>
+        <v>18.34863710884325</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.177824355319979</v>
+        <v>8.247994931157347</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-30.97163859121524</v>
+        <v>-30.83847576197972</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>16.18457204195215</v>
+        <v>16.11553061188163</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>8.265469406411489</v>
+        <v>8.31357466164436</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-29.36240541254032</v>
+        <v>-29.40440539079973</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.1143114269159833</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.7204151308287373</v>
+        <v>-0.7204151308287374</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3359356718025268</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2323895764665732</v>
+        <v>0.245101033834734</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1037368295791285</v>
+        <v>0.1060902035518787</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7895116491357169</v>
+        <v>-0.7897895445626395</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2698603435233789</v>
+        <v>0.2660773674980974</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.04645604405871395</v>
+        <v>0.05034387036158397</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.7457363769825026</v>
+        <v>-0.7458564304514401</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2822893620081436</v>
+        <v>0.2756680834632499</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0935895773371835</v>
+        <v>0.09890152926830517</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7582243714897505</v>
+        <v>-0.7584026681640808</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4396297865331147</v>
+        <v>0.4448334502889392</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.297024359708756</v>
+        <v>0.3049342986359384</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.7240855820025482</v>
+        <v>-0.7268931036419738</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4243256769008434</v>
+        <v>0.4171765840391672</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1845661093640756</v>
+        <v>0.1870370936559985</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.6969627180442853</v>
+        <v>-0.694906390071062</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3948117227021385</v>
+        <v>0.395522514873255</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2019735195561468</v>
+        <v>0.2037604092632194</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.7190912471929434</v>
+        <v>-0.7207726802823043</v>
       </c>
     </row>
     <row r="52">
